--- a/TrackAttendance.xlsx
+++ b/TrackAttendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\DBA\2024_2025\ME2024\Notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\GithubProjects\TrackME2024Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7941E45-E1C1-438E-B82D-2954E5D88F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A11555-C433-4D71-99D1-9FDB47365520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -463,7 +483,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection activeCell="B2" sqref="B2:Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -787,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -941,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1172,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1249,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1326,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1480,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1557,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1634,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1711,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1865,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1942,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2019,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2173,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2250,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2327,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2404,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2481,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2558,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2635,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2712,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2789,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2866,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2943,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3020,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3097,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3174,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3251,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3328,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3405,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3559,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3636,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3713,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3867,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3944,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4021,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4098,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4175,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/TrackAttendance.xlsx
+++ b/TrackAttendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\GithubProjects\TrackME2024Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\DBA\2024_2025\ME2024\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A11555-C433-4D71-99D1-9FDB47365520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E326D-39F7-4597-81D8-984D52060A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,12 +136,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +490,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y49"/>
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -736,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -816,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -887,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -967,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1044,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1121,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1198,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1275,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1355,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1429,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1506,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1583,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1660,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1737,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1814,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1888,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1968,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2045,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2122,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2199,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2276,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2356,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2430,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2507,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2584,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2661,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2738,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2815,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2892,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2969,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3046,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3123,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3200,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3274,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3354,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3431,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3508,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3585,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3662,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3739,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3803,76 +3810,76 @@
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3893,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3967,13 +3974,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4047,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4124,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4201,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>

--- a/TrackAttendance.xlsx
+++ b/TrackAttendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\DBA\2024_2025\ME2024\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E326D-39F7-4597-81D8-984D52060A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5031F6-9E2B-4B3A-88FF-361A005BBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2911,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3062,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3219,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3293,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>

--- a/TrackAttendance.xlsx
+++ b/TrackAttendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\DBA\2024_2025\ME2024\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5031F6-9E2B-4B3A-88FF-361A005BBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92037181-3038-491E-A84D-3A39255F90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F5D254DF-AC0E-4ADD-BBE5-D2A4EECB9783}</author>
+    <author>tc={416AB938-3E8D-40D2-A97F-0EE1D1964CBA}</author>
+  </authors>
+  <commentList>
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{F5D254DF-AC0E-4ADD-BBE5-D2A4EECB9783}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Não vei á aula mas enviou material de trabalho sobre a mesma</t>
+      </text>
+    </comment>
+    <comment ref="P45" authorId="1" shapeId="0" xr:uid="{416AB938-3E8D-40D2-A97F-0EE1D1964CBA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Brought Giacommo, the boyfriend!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -121,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +161,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -222,6 +255,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tiago Marques" id="{330CFB5A-0969-4D25-A746-8DE0887A9255}" userId="S::tam2@st-andrews.ac.uk::96beba77-5c44-4272-afd6-695a052fe042" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,12 +524,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O27" dT="2024-11-14T10:05:41.87" personId="{330CFB5A-0969-4D25-A746-8DE0887A9255}" id="{F5D254DF-AC0E-4ADD-BBE5-D2A4EECB9783}">
+    <text>Não vei á aula mas enviou material de trabalho sobre a mesma</text>
+  </threadedComment>
+  <threadedComment ref="P45" dT="2024-11-20T11:35:47.99" personId="{330CFB5A-0969-4D25-A746-8DE0887A9255}" id="{416AB938-3E8D-40D2-A97F-0EE1D1964CBA}">
+    <text>Brought Giacommo, the boyfriend!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -761,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -838,19 +888,19 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -921,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -998,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1075,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1146,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1158,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1223,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1300,19 +1350,19 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1377,19 +1427,19 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1457,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1531,19 +1581,19 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1608,19 +1658,19 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1685,19 +1735,19 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1768,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1842,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1916,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1996,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2070,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2147,19 +2197,19 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2224,19 +2274,19 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2304,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2378,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2455,19 +2505,19 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2532,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2609,19 +2659,19 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2689,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2763,19 +2813,19 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2840,19 +2890,19 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2917,19 +2967,19 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3000,13 +3050,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3071,19 +3121,19 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3148,19 +3198,19 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3228,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3302,19 +3352,19 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3379,19 +3429,19 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3462,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3533,19 +3583,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3610,19 +3660,19 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -3687,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3696,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3764,19 +3814,19 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3918,19 +3968,19 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3995,19 +4045,19 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4078,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -4149,19 +4199,19 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4269,7 +4319,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Y49">
+  <conditionalFormatting sqref="Q2:Y49">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:P49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4278,5 +4336,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TrackAttendance.xlsx
+++ b/TrackAttendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\DBA\2024_2025\ME2024\Notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\GithubProjects\TrackME2024Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92037181-3038-491E-A84D-3A39255F90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E78DD-2194-491A-A663-C826B9EA6CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +161,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,27 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -539,13 +513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -622,7 +596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -699,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -776,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -826,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -853,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -903,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -915,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -924,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -983,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1004,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1057,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1075,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1084,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1134,34 +1108,34 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1211,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1226,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1294,28 +1268,28 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,34 +1339,34 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,31 +1419,31 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1546,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1602,28 +1576,28 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1673,34 +1647,34 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1750,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1836,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1916,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1928,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,31 +1958,31 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2058,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2076,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2135,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2147,22 +2121,22 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -2212,34 +2186,34 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2289,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2301,22 +2275,22 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2372,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2393,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2446,31 +2420,31 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2523,31 +2497,31 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,16 +2568,16 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2615,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2674,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2695,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2754,31 +2728,31 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2828,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2846,16 +2820,16 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2905,34 +2879,34 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2982,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3000,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -3062,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3077,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -3136,34 +3110,34 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3213,34 +3187,34 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -3290,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3302,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3314,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3367,16 +3341,16 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3385,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3394,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -3444,34 +3418,34 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -3521,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3539,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -3548,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -3598,34 +3572,34 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -3675,34 +3649,34 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -3752,34 +3726,34 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -3829,34 +3803,34 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -3933,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -3989,28 +3963,28 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -4060,34 +4034,34 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -4137,34 +4111,34 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -4214,34 +4188,34 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -4319,15 +4293,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Y49">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P49">
+  <conditionalFormatting sqref="B2:Y49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
